--- a/BOM/Primary Cellular BOM.xlsx
+++ b/BOM/Primary Cellular BOM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjb/Dropbox/Smart_Coasts_Sensors/Water-Level/Open-Water-Level/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bresnahanp/Dropbox/Smart_Coasts_Sensors/Water-Level/Open-Water-Level/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAC1029-3E4A-004F-BA6E-D1D72DBD9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34526CC9-BAF7-5445-BAD0-87A6C78C3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{0D210AF6-23E9-A744-AE8B-DF37C1FE28F7}"/>
+    <workbookView xWindow="-38400" yWindow="2040" windowWidth="38400" windowHeight="21100" xr2:uid="{0D210AF6-23E9-A744-AE8B-DF37C1FE28F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Parts</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Microcontroller, cell modem, power management</t>
   </si>
   <si>
-    <t>Antenna (included in above; confirm)</t>
-  </si>
-  <si>
     <t>Cellular communications</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>Distance sensor</t>
   </si>
   <si>
-    <t>5V 5W Solar Panel - ETFE - Voltaic P105</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/5367</t>
-  </si>
-  <si>
     <t>Solar charging</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>https://www.adafruit.com/product/354</t>
   </si>
   <si>
-    <t>Rechargeable battery; confirm fit inside chosen enclosure</t>
-  </si>
-  <si>
     <t>ML-24F Outdoor NEMA Enclosure</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t>https://www.digikey.com/en/products/detail/lapp/S2209/11200603</t>
   </si>
   <si>
-    <t>Waterproof cable entry; only for old design with NEMA enclosure</t>
-  </si>
-  <si>
     <t>USB DIY Slim Connector Shell - MicroB Plug</t>
   </si>
   <si>
@@ -161,13 +146,37 @@
     <t>Seal gland (necessary?)</t>
   </si>
   <si>
-    <t>Cell plan (we currently use Particle's Free Plan)</t>
-  </si>
-  <si>
     <t>Cloud data management</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Antenna (included in above)</t>
+  </si>
+  <si>
+    <t>https://voltaicsystems.com/5-watt-5-volt-35wh-solar-system/</t>
+  </si>
+  <si>
+    <t>5 Watt 5 Volt 35Wh Solar System</t>
+  </si>
+  <si>
+    <t>Rechargeable battery</t>
+  </si>
+  <si>
+    <t>Waterproof cable entry</t>
+  </si>
+  <si>
+    <t>Cell plan (we use Particle's Free Plan for now*)</t>
+  </si>
+  <si>
+    <t>FormLabs Tough Resin</t>
+  </si>
+  <si>
+    <t>https://formlabs.com/store/materials/tough-2000-resin/</t>
+  </si>
+  <si>
+    <t>Mounting brackets; 1 L ($199) should suffice for ~ 5 brackets</t>
   </si>
 </sst>
 </file>
@@ -253,9 +262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +302,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,14 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6A8C5C-7B83-A643-BC55-1EA2BE865EBF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="83.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -591,176 +601,178 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
-        <v>99.95</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>34.950000000000003</v>
+        <v>99.95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>8.9499999999999993</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <v>1.25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>9.9499999999999993</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>19.95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4">
-        <v>14.24</v>
+        <v>0.95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4">
-        <v>4.1399999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
-        <v>0.95</v>
+        <v>14.24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
-        <v>0.95</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4">
         <v>11.16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -769,23 +781,36 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4">
-        <f>SUM(C2:C15)</f>
-        <v>271.74999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4">
+        <f>SUM(C2:C16)</f>
+        <v>375.8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E3E974F9-4404-6B4D-AE09-B1BF30275EAC}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{DA233AC4-AE09-5743-AAD8-181A3438DEF4}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{7F5D93D9-2BDB-C844-96D6-21ECC1234C12}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{EE631827-5DE4-7446-8030-F5AC929DDE04}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{F74FD16F-30B0-3241-B338-70270A43EA8E}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{B088DEAF-C04C-3846-B6A5-3C37B0476E3B}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{C23C8E08-60BF-0B40-B4E3-2D4B5DA9BCAE}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{DA24D527-0745-8D40-94E1-C39EC4A4F012}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{8B0568F4-EFFB-8042-A7FD-33A1CF601D47}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{406DF113-13EF-E64A-B909-0C46C1A4AA65}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{9B1B6913-BC78-7C44-B24B-78E9D8E84C81}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{DA233AC4-AE09-5743-AAD8-181A3438DEF4}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{EE631827-5DE4-7446-8030-F5AC929DDE04}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{F74FD16F-30B0-3241-B338-70270A43EA8E}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{B088DEAF-C04C-3846-B6A5-3C37B0476E3B}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{C23C8E08-60BF-0B40-B4E3-2D4B5DA9BCAE}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{DA24D527-0745-8D40-94E1-C39EC4A4F012}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{8B0568F4-EFFB-8042-A7FD-33A1CF601D47}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{406DF113-13EF-E64A-B909-0C46C1A4AA65}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{9B1B6913-BC78-7C44-B24B-78E9D8E84C81}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{DCCF730D-4469-2949-B5A0-6CB321B250A5}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{7612B4CC-CD8C-1345-AFCF-07E46999C290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
